--- a/data/trans_orig/P16A_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,58</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,84</t>
+          <t>0,62; 0,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,06</t>
+          <t>0,94; 1,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,51</t>
+          <t>0,84; 1,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,62</t>
+          <t>1,25; 1,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,26</t>
+          <t>0,91; 1,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,94</t>
+          <t>1,5; 1,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,8</t>
+          <t>1,37; 1,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,4</t>
+          <t>1,4; 1,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,99</t>
+          <t>0,78; 0,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,4</t>
+          <t>1,25; 1,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,56</t>
+          <t>1,15; 1,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 1,95</t>
+          <t>1,41; 1,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,81</t>
+          <t>0,67; 0,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,22</t>
+          <t>0,89; 1,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,0</t>
+          <t>0,85; 1,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,64</t>
+          <t>0,48; 1,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,08</t>
+          <t>1,05; 1,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,81</t>
+          <t>1,5; 1,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,67</t>
+          <t>1,24; 1,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,91</t>
+          <t>1,6; 1,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,92</t>
+          <t>0,88; 0,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,47</t>
+          <t>1,22; 1,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,31</t>
+          <t>1,06; 1,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 1,72</t>
+          <t>0,84; 1,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>1,7</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,81</t>
+          <t>0,59; 0,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,07</t>
+          <t>0,85; 1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,0</t>
+          <t>0,78; 0,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,17</t>
+          <t>1,1; 1,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,23</t>
+          <t>1,09; 1,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,74</t>
+          <t>1,37; 1,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,44</t>
+          <t>1,2; 1,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,8</t>
+          <t>1,45; 2,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 0,99</t>
+          <t>0,88; 1,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,37</t>
+          <t>1,14; 1,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,19</t>
+          <t>1,01; 1,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,46</t>
+          <t>1,33; 2,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,57 +1076,57 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,95</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>1,22</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,76</t>
+          <t>0,67; 0,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,1</t>
+          <t>0,99; 1,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,97</t>
+          <t>0,87; 1,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,38</t>
+          <t>1,2; 1,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,33</t>
+          <t>1,12; 1,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,61</t>
+          <t>1,6; 1,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,43</t>
+          <t>1,35; 1,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,61</t>
+          <t>1,67; 1,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,02</t>
+          <t>0,92; 1,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,3</t>
+          <t>1,35; 1,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,17</t>
+          <t>1,15; 1,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,1</t>
+          <t>1,49; 1,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,82</t>
+          <t>0,68; 0,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,24</t>
+          <t>0,97; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,03</t>
+          <t>0,88; 0,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,42</t>
+          <t>0,89; 1,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,3</t>
+          <t>1,1; 1,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 1,83</t>
+          <t>1,56; 1,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,57</t>
+          <t>1,34; 1,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,04</t>
+          <t>1,68; 2,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,05</t>
+          <t>0,9; 0,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,52</t>
+          <t>1,28; 1,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,29</t>
+          <t>1,13; 1,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 1,71</t>
+          <t>1,37; 1,71</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 0,76</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 0,96</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 1,31</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 1,2</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 1,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 1,46</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,03</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,97</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 1,37</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 1,2</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 1,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P16A_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,79</t>
+          <t>0,62; 0,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,15</t>
+          <t>0,95; 1,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,04</t>
+          <t>0,84; 1,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,57</t>
+          <t>1,26; 1,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,09</t>
+          <t>0,9; 1,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,77</t>
+          <t>1,49; 1,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,63</t>
+          <t>1,38; 1,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 1,92</t>
+          <t>1,35; 1,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,91</t>
+          <t>0,78; 0,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,42</t>
+          <t>1,25; 1,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,31</t>
+          <t>1,14; 1,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,7</t>
+          <t>1,37; 1,7</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,81</t>
+          <t>0,66; 0,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,0</t>
+          <t>0,84; 0,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,23</t>
+          <t>1,04; 1,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,74</t>
+          <t>1,5; 1,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,44</t>
+          <t>1,23; 1,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 1,81</t>
+          <t>1,62; 1,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 0,99</t>
+          <t>0,88; 1,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,37</t>
+          <t>1,22; 1,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,43</t>
+          <t>0,85; 1,43</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,76</t>
+          <t>0,59; 0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,1</t>
+          <t>0,84; 1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,35</t>
+          <t>1,09; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,33</t>
+          <t>1,1; 1,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,22 +1034,22 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,43</t>
+          <t>1,18; 1,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,98</t>
+          <t>1,45; 2,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,02</t>
+          <t>0,87; 1,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,3</t>
+          <t>1,14; 1,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,45</t>
+          <t>1,33; 2,49</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,24</t>
+          <t>0,99; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,03</t>
+          <t>0,87; 1,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,41</t>
+          <t>1,19; 1,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,3</t>
+          <t>1,12; 1,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 1,83</t>
+          <t>1,61; 1,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 1,98</t>
+          <t>1,66; 1,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,52</t>
+          <t>1,34; 1,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,67</t>
+          <t>1,5; 1,68</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,76</t>
+          <t>0,68; 0,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,07</t>
+          <t>0,96; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,26</t>
+          <t>0,89; 1,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,2</t>
+          <t>1,09; 1,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,46</t>
+          <t>1,33; 1,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,22</t>
+          <t>1,68; 2,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,37</t>
+          <t>1,29; 1,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,71</t>
+          <t>1,37; 1,75</t>
         </is>
       </c>
     </row>
